--- a/Waste/Dry Waste Bin(lcd)/dry_waste_bin.xlsx
+++ b/Waste/Dry Waste Bin(lcd)/dry_waste_bin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Objective</t>
   </si>
@@ -117,9 +117,6 @@
     <t>A0 to A0(analog pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the component upload the code attached.</t>
-  </si>
-  <si>
     <t>Connect the LCD to Arduino UNO</t>
   </si>
   <si>
@@ -141,24 +138,12 @@
     <t>SCL to A5(analog pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To find the address upload the address sketch.</t>
-  </si>
-  <si>
     <t>Attach the soil moisture sensor to the waste bin</t>
   </si>
   <si>
-    <t>Upload the final code</t>
-  </si>
-  <si>
-    <t>Address code</t>
-  </si>
-  <si>
     <t>Attach the LCD to the waste bin</t>
   </si>
   <si>
-    <t>Final code</t>
-  </si>
-  <si>
     <t>Updated</t>
   </si>
   <si>
@@ -169,6 +154,24 @@
   </si>
   <si>
     <t>LCD indicates when wet waste is disposed in a dry waste bin</t>
+  </si>
+  <si>
+    <t>To check the component upload code001.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>To find the address upload code002.</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Upload code003</t>
+  </si>
+  <si>
+    <t>Code003</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +758,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,14 +829,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -841,43 +844,43 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
